--- a/example.xlsx
+++ b/example.xlsx
@@ -2358,6 +2358,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="A4:AA4"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3254,6 +3260,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="A4:Y4"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5722,6 +5734,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>